--- a/Assignments/Benchmarking/NodeClassification/Final_Results/Stats/Results_multiclass_node_classification.xlsx
+++ b/Assignments/Benchmarking/NodeClassification/Final_Results/Stats/Results_multiclass_node_classification.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samidhaverma/Documents/Projects/COL868-1/Assignments/Benchmarking/NodeClassification/results/Stats/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samidhaverma/Documents/Projects/COL868-1/Assignments/Benchmarking/NodeClassification/Final_Results/Stats/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2A0F512-0F15-7141-B81F-B9B0A8194AB3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B74D559E-27C2-A147-8F96-5D8EA2CDD285}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11460" yWindow="500" windowWidth="17340" windowHeight="16260" activeTab="4" xr2:uid="{0C61C641-96CB-7A46-A628-49AC35D6B750}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{0C61C641-96CB-7A46-A628-49AC35D6B750}"/>
   </bookViews>
   <sheets>
     <sheet name="GraphSAGE" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="24">
   <si>
     <t>F1-Score</t>
   </si>
@@ -481,8 +481,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7BB8506-D838-D645-A32A-02C1D91D057D}">
   <dimension ref="A1:H39"/>
   <sheetViews>
-    <sheetView zoomScale="144" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="115" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1174,249 +1174,222 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4BFA6D1-9D6A-6B44-9162-6BD7566A8AB6}">
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0.67338600000000004</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0.77228600000000003</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0.59743100000000005</v>
+      </c>
+      <c r="F2" s="1">
+        <v>0.68884900000000004</v>
+      </c>
+      <c r="G2">
+        <v>22.034438999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3">
+        <v>0.64133399999999996</v>
+      </c>
+      <c r="D3">
+        <v>0.72204500000000005</v>
+      </c>
+      <c r="E3">
+        <v>0.57817099999999999</v>
+      </c>
+      <c r="F3">
+        <v>0.65906100000000001</v>
+      </c>
+      <c r="G3">
+        <v>80.979253999999997</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4">
         <v>4</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4">
+        <v>0.60306999999999999</v>
+      </c>
+      <c r="D4">
+        <v>0.715059</v>
+      </c>
+      <c r="E4">
+        <v>0.52242100000000002</v>
+      </c>
+      <c r="F4">
+        <v>0.63001700000000005</v>
+      </c>
+      <c r="G4">
+        <v>95.273957999999993</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5">
         <v>5</v>
       </c>
-      <c r="C1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5">
+        <v>0.57915000000000005</v>
+      </c>
+      <c r="D5">
+        <v>0.69325800000000004</v>
+      </c>
+      <c r="E5">
+        <v>0.49986900000000001</v>
+      </c>
+      <c r="F5">
+        <v>0.609877</v>
+      </c>
+      <c r="G5">
+        <v>122.929782</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6">
         <v>2</v>
       </c>
-      <c r="G1" t="s">
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6">
+        <v>0.49439699999999998</v>
+      </c>
+      <c r="D6">
+        <v>0.68582799999999999</v>
+      </c>
+      <c r="E6">
+        <v>0.38670500000000002</v>
+      </c>
+      <c r="F6">
+        <v>0.54898800000000003</v>
+      </c>
+      <c r="G6">
+        <v>20.645828999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7">
         <v>3</v>
       </c>
-      <c r="H1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2">
-        <v>2</v>
-      </c>
-      <c r="C2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="1">
-        <v>0.67338600000000004</v>
-      </c>
-      <c r="E2" s="1">
-        <v>0.77228600000000003</v>
-      </c>
-      <c r="F2" s="1">
-        <v>0.59743100000000005</v>
-      </c>
-      <c r="G2" s="1">
-        <v>0.68884900000000004</v>
-      </c>
-      <c r="H2">
-        <v>22.034438999999999</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3">
-        <v>3</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3">
-        <v>0.64133399999999996</v>
-      </c>
-      <c r="E3">
-        <v>0.72204500000000005</v>
-      </c>
-      <c r="F3">
-        <v>0.57817099999999999</v>
-      </c>
-      <c r="G3">
-        <v>0.65906100000000001</v>
-      </c>
-      <c r="H3">
-        <v>80.979253999999997</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4">
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7">
+        <v>0.456349</v>
+      </c>
+      <c r="D7">
+        <v>0.68110099999999996</v>
+      </c>
+      <c r="E7">
+        <v>0.34521499999999999</v>
+      </c>
+      <c r="F7">
+        <v>0.52881100000000003</v>
+      </c>
+      <c r="G7">
+        <v>38.977094000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8">
         <v>4</v>
       </c>
-      <c r="C4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4">
-        <v>0.60306999999999999</v>
-      </c>
-      <c r="E4">
-        <v>0.715059</v>
-      </c>
-      <c r="F4">
-        <v>0.52242100000000002</v>
-      </c>
-      <c r="G4">
-        <v>0.63001700000000005</v>
-      </c>
-      <c r="H4">
-        <v>95.273957999999993</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5">
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8">
+        <v>0.477105</v>
+      </c>
+      <c r="D8">
+        <v>0.66134499999999996</v>
+      </c>
+      <c r="E8">
+        <v>0.37460300000000002</v>
+      </c>
+      <c r="F8">
+        <v>0.53128500000000001</v>
+      </c>
+      <c r="G8">
+        <v>49.170870999999998</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9">
         <v>5</v>
       </c>
-      <c r="C5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5">
-        <v>0.57915000000000005</v>
-      </c>
-      <c r="E5">
-        <v>0.69325800000000004</v>
-      </c>
-      <c r="F5">
-        <v>0.49986900000000001</v>
-      </c>
-      <c r="G5">
-        <v>0.609877</v>
-      </c>
-      <c r="H5">
-        <v>122.929782</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6">
-        <v>2</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="B9" t="s">
         <v>11</v>
       </c>
-      <c r="D6">
-        <v>0.49439699999999998</v>
-      </c>
-      <c r="E6">
-        <v>0.68582799999999999</v>
-      </c>
-      <c r="F6">
-        <v>0.38670500000000002</v>
-      </c>
-      <c r="G6">
-        <v>0.54898800000000003</v>
-      </c>
-      <c r="H6">
-        <v>20.645828999999999</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7">
-        <v>3</v>
-      </c>
-      <c r="C7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7">
-        <v>0.456349</v>
-      </c>
-      <c r="E7">
-        <v>0.68110099999999996</v>
-      </c>
-      <c r="F7">
-        <v>0.34521499999999999</v>
-      </c>
-      <c r="G7">
-        <v>0.52881100000000003</v>
-      </c>
-      <c r="H7">
-        <v>38.977094000000001</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8">
-        <v>4</v>
-      </c>
-      <c r="C8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8">
-        <v>0.477105</v>
-      </c>
-      <c r="E8">
-        <v>0.66134499999999996</v>
-      </c>
-      <c r="F8">
-        <v>0.37460300000000002</v>
-      </c>
-      <c r="G8">
-        <v>0.53128500000000001</v>
-      </c>
-      <c r="H8">
-        <v>49.170870999999998</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9">
-        <v>5</v>
-      </c>
-      <c r="C9" t="s">
-        <v>11</v>
+      <c r="C9">
+        <v>0.46022099999999999</v>
       </c>
       <c r="D9">
-        <v>0.46022099999999999</v>
+        <v>0.668821</v>
       </c>
       <c r="E9">
-        <v>0.668821</v>
+        <v>0.35363699999999998</v>
       </c>
       <c r="F9">
-        <v>0.35363699999999998</v>
+        <v>0.526034</v>
       </c>
       <c r="G9">
-        <v>0.526034</v>
-      </c>
-      <c r="H9">
         <v>62.085808999999998</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -1424,7 +1397,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>100</v>
       </c>
@@ -1800,7 +1773,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD8F7C5F-4C2E-FE4C-B82B-B297EE7CC0B1}">
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
@@ -1944,7 +1917,7 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:F5"/>
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
